--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCFA043-79DC-43D8-9F19-9AF057D0B61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809F82A-1117-4DA2-B3BF-F4E94DBA9716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,9 +75,6 @@
     <t>html/css</t>
   </si>
   <si>
-    <t>js</t>
-  </si>
-  <si>
     <t>БД</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
   </si>
   <si>
     <t>221/1</t>
+  </si>
+  <si>
+    <t>Js</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -149,12 +155,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -177,6 +177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -451,13 +457,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,13 +490,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,16 +508,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,43 +529,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,7 +827,7 @@
   <dimension ref="A1:BH30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -830,60 +836,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="26"/>
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="10"/>
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
@@ -894,84 +900,84 @@
       <c r="BH1" s="1"/>
     </row>
     <row r="2" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27" t="s">
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27" t="s">
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27" t="s">
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27" t="s">
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27" t="s">
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="28"/>
+      <c r="AZ2" s="11"/>
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
       <c r="BC2" s="3"/>
@@ -1148,153 +1154,153 @@
       <c r="BH3" s="1"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="10" t="s">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ4" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ4" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
@@ -1306,153 +1312,153 @@
       <c r="BH4" s="1"/>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="16" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ5" s="25" t="s">
         <v>16</v>
-      </c>
-      <c r="AA5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ5" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
@@ -1464,153 +1470,153 @@
       <c r="BH5" s="1"/>
     </row>
     <row r="6" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE6" s="21" t="s">
+      <c r="A6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AZ6" s="32" t="s">
         <v>16</v>
-      </c>
-      <c r="AG6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ6" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
@@ -2745,11 +2751,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
     <mergeCell ref="A1:AZ1"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
@@ -2761,6 +2762,11 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-221-1\lections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809F82A-1117-4DA2-B3BF-F4E94DBA9716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379DECB4-EBAA-4E8D-93CF-1199493FBCE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="19">
   <si>
     <t>май</t>
   </si>
@@ -466,87 +466,87 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -836,60 +836,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="10"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="26"/>
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
@@ -900,84 +900,84 @@
       <c r="BH1" s="1"/>
     </row>
     <row r="2" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7" t="s">
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7" t="s">
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7" t="s">
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7" t="s">
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7" t="s">
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7" t="s">
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="11"/>
+      <c r="AZ2" s="28"/>
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
       <c r="BC2" s="3"/>
@@ -1154,155 +1154,157 @@
       <c r="BH3" s="1"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="16" t="s">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AA4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AB4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="16" t="s">
+      <c r="AC4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="16" t="s">
+      <c r="AD4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AZ4" s="18" t="s">
+      <c r="AE4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="BA4" s="1"/>
+      <c r="BA4" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
@@ -1312,155 +1314,157 @@
       <c r="BH4" s="1"/>
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22" t="s">
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="AZ5" s="25" t="s">
+      <c r="Y5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="BA5" s="1"/>
+      <c r="BA5" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
@@ -1470,152 +1474,152 @@
       <c r="BH5" s="1"/>
     </row>
     <row r="6" spans="1:60" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="29" t="s">
+      <c r="A6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Z6" s="29" t="s">
+      <c r="Z6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="29" t="s">
+      <c r="AA6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="29" t="s">
+      <c r="AB6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="29" t="s">
+      <c r="AC6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="29" t="s">
+      <c r="AD6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AE6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY6" s="31" t="s">
+      <c r="AE6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AZ6" s="32" t="s">
+      <c r="AZ6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="BA6" s="1"/>
@@ -2751,6 +2755,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
     <mergeCell ref="A1:AZ1"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
@@ -2762,11 +2771,6 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A65688-B7F3-4CDB-B778-C6DA807CD124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF233F-E433-4789-B47E-16D69FA01B20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2448" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="19">
   <si>
     <t>май</t>
   </si>
@@ -134,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -446,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,6 +517,24 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,22 +544,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA6"/>
+  <dimension ref="A1:BA9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -830,63 +845,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="28"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="24"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25"/>
@@ -963,7 +978,7 @@
       <c r="AY2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="29"/>
+      <c r="AZ2" s="26"/>
     </row>
     <row r="3" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -1154,9 +1169,9 @@
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1217,7 +1232,7 @@
       <c r="AG4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="22"/>
+      <c r="AH4" s="28"/>
       <c r="AI4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1307,9 +1322,9 @@
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1370,7 +1385,7 @@
       <c r="AG5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="23"/>
+      <c r="AH5" s="29"/>
       <c r="AI5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1460,9 +1475,9 @@
       <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
@@ -1523,7 +1538,7 @@
       <c r="AG6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="24"/>
+      <c r="AH6" s="30"/>
       <c r="AI6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1577,10 +1592,69 @@
       </c>
       <c r="AZ6" s="21" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI8" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI9" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
     <mergeCell ref="A1:AZ1"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
@@ -1592,11 +1666,6 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF233F-E433-4789-B47E-16D69FA01B20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB9598-1F66-4D77-8A63-29518C0E6BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="19">
   <si>
     <t>май</t>
   </si>
@@ -134,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,12 +183,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -517,6 +511,18 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,31 +532,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -845,63 +839,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="28"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25"/>
@@ -978,7 +972,7 @@
       <c r="AY2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="26"/>
+      <c r="AZ2" s="29"/>
     </row>
     <row r="3" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -1169,9 +1163,9 @@
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1232,7 +1226,7 @@
       <c r="AG4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="28"/>
+      <c r="AH4" s="22"/>
       <c r="AI4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1322,9 +1316,9 @@
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1385,7 +1379,7 @@
       <c r="AG5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="29"/>
+      <c r="AH5" s="23"/>
       <c r="AI5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1475,9 +1469,9 @@
       <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
@@ -1538,7 +1532,7 @@
       <c r="AG6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="30"/>
+      <c r="AH6" s="24"/>
       <c r="AI6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1596,65 +1590,30 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AD7" s="31"/>
-      <c r="AE7" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF7" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG7" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH7" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI7" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AD8" s="32"/>
-      <c r="AE8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI8" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
     </row>
     <row r="9" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD9" s="33"/>
-      <c r="AE9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI9" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
     <mergeCell ref="A1:AZ1"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
@@ -1666,6 +1625,11 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB9598-1F66-4D77-8A63-29518C0E6BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB8D8DF-6EF1-43F3-9A50-EF15BAF02970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -446,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,6 +517,18 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,15 +554,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -829,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AQ9" sqref="AQ9"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -839,140 +848,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="32"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25" t="s">
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25" t="s">
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25" t="s">
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25" t="s">
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25" t="s">
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25" t="s">
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="29"/>
+      <c r="AZ2" s="33"/>
     </row>
     <row r="3" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -1163,9 +1172,9 @@
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1235,7 @@
       <c r="AG4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="22"/>
+      <c r="AH4" s="26"/>
       <c r="AI4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1316,9 +1325,9 @@
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
       <c r="N5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1379,7 +1388,7 @@
       <c r="AG5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="23"/>
+      <c r="AH5" s="27"/>
       <c r="AI5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1469,9 +1478,9 @@
       <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
       <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1541,7 @@
       <c r="AG6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="24"/>
+      <c r="AH6" s="28"/>
       <c r="AI6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1589,28 +1598,35 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
     </row>
     <row r="9" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB8D8DF-6EF1-43F3-9A50-EF15BAF02970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F1171A-FD31-4BB8-B926-02098724A239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="20">
   <si>
     <t>май</t>
   </si>
@@ -88,6 +82,9 @@
   </si>
   <si>
     <t>Js</t>
+  </si>
+  <si>
+    <t>Экзамен</t>
   </si>
 </sst>
 </file>
@@ -134,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +186,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -452,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,6 +532,24 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,22 +559,16 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,72 +854,75 @@
   <dimension ref="A1:BA9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AQ5" sqref="AQ5"/>
+      <selection activeCell="AV9" sqref="AV9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="5.109375" style="1"/>
+    <col min="1" max="49" width="5.109375" style="1"/>
+    <col min="50" max="50" width="5.77734375" style="1" customWidth="1"/>
+    <col min="51" max="51" width="8.109375" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="5.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="32"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="28"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="29"/>
@@ -981,7 +999,7 @@
       <c r="AY2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="33"/>
+      <c r="AZ2" s="30"/>
     </row>
     <row r="3" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -1172,9 +1190,9 @@
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1253,7 @@
       <c r="AG4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="26"/>
+      <c r="AH4" s="32"/>
       <c r="AI4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1281,10 +1299,10 @@
       <c r="AW4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AX4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY4" s="8" t="s">
+      <c r="AX4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY4" s="35" t="s">
         <v>15</v>
       </c>
       <c r="AZ4" s="9" t="s">
@@ -1325,9 +1343,9 @@
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +1406,7 @@
       <c r="AG5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="27"/>
+      <c r="AH5" s="33"/>
       <c r="AI5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1434,10 +1452,10 @@
       <c r="AW5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AX5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY5" s="14" t="s">
+      <c r="AX5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="AZ5" s="15" t="s">
@@ -1478,9 +1496,9 @@
       <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +1559,7 @@
       <c r="AG6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="28"/>
+      <c r="AH6" s="34"/>
       <c r="AI6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1587,7 +1605,7 @@
       <c r="AW6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AX6" s="19" t="s">
+      <c r="AX6" s="37" t="s">
         <v>15</v>
       </c>
       <c r="AY6" s="20" t="s">
@@ -1619,6 +1637,10 @@
       <c r="AG8" s="23"/>
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
+      <c r="AX8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY8" s="38"/>
     </row>
     <row r="9" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD9" s="24"/>
@@ -1629,7 +1651,13 @@
       <c r="AI9" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
     <mergeCell ref="A1:AZ1"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
@@ -1641,11 +1669,6 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F1171A-FD31-4BB8-B926-02098724A239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A704AE-E5F8-4AA1-A9B4-2A6DF08662D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="21">
   <si>
     <t>май</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Экзамен</t>
+  </si>
+  <si>
+    <t>Данат</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +195,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -455,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,6 +541,30 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,34 +574,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,155 +863,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA9"/>
+  <dimension ref="A1:BA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AV9" sqref="AV9"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="49" width="5.109375" style="1"/>
+    <col min="1" max="48" width="5.109375" style="1"/>
+    <col min="49" max="49" width="10" style="1" customWidth="1"/>
     <col min="50" max="50" width="5.77734375" style="1" customWidth="1"/>
     <col min="51" max="51" width="8.109375" style="1" customWidth="1"/>
     <col min="52" max="16384" width="5.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="36"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29" t="s">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29" t="s">
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29" t="s">
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29" t="s">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29" t="s">
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29" t="s">
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="30"/>
+      <c r="AZ2" s="37"/>
     </row>
     <row r="3" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -1190,9 +1203,9 @@
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1253,7 +1266,7 @@
       <c r="AG4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="32"/>
+      <c r="AH4" s="30"/>
       <c r="AI4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1299,10 +1312,10 @@
       <c r="AW4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AX4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY4" s="35" t="s">
+      <c r="AX4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY4" s="26" t="s">
         <v>15</v>
       </c>
       <c r="AZ4" s="9" t="s">
@@ -1343,9 +1356,9 @@
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1406,7 +1419,7 @@
       <c r="AG5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="33"/>
+      <c r="AH5" s="31"/>
       <c r="AI5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1452,10 +1465,10 @@
       <c r="AW5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AX5" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY5" s="36" t="s">
+      <c r="AX5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY5" s="27" t="s">
         <v>15</v>
       </c>
       <c r="AZ5" s="15" t="s">
@@ -1496,9 +1509,9 @@
       <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
@@ -1559,7 +1572,7 @@
       <c r="AG6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="34"/>
+      <c r="AH6" s="32"/>
       <c r="AI6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1605,7 +1618,7 @@
       <c r="AW6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AX6" s="37" t="s">
+      <c r="AX6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="AY6" s="20" t="s">
@@ -1637,10 +1650,11 @@
       <c r="AG8" s="23"/>
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
-      <c r="AX8" s="38" t="s">
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AY8" s="38"/>
+      <c r="AY8" s="29"/>
     </row>
     <row r="9" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD9" s="24"/>
@@ -1649,15 +1663,18 @@
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
       <c r="AI9" s="24"/>
+      <c r="AW9" s="39"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AW10" s="39"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AW11" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
+  <mergeCells count="18">
     <mergeCell ref="A1:AZ1"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
@@ -1669,6 +1686,13 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AW8:AW10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A704AE-E5F8-4AA1-A9B4-2A6DF08662D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5AF07C-26B8-4BBF-8BBD-38668DE21149}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="22">
   <si>
     <t>май</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Данат</t>
+  </si>
+  <si>
+    <t>Дипломный проект: на выбор - Django MVT | Django DRF</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,6 +553,24 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,25 +583,10 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA11"/>
+  <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AS11" sqref="AS11"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -879,140 +885,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="36"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="31"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33" t="s">
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33" t="s">
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33" t="s">
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33" t="s">
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33" t="s">
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33" t="s">
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="37"/>
+      <c r="AZ2" s="33"/>
     </row>
     <row r="3" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -1203,9 +1209,9 @@
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1266,7 +1272,7 @@
       <c r="AG4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="30"/>
+      <c r="AH4" s="36"/>
       <c r="AI4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1356,9 +1362,9 @@
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1419,7 +1425,7 @@
       <c r="AG5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="31"/>
+      <c r="AH5" s="37"/>
       <c r="AI5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1509,9 +1515,9 @@
       <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
@@ -1572,7 +1578,7 @@
       <c r="AG6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="32"/>
+      <c r="AH6" s="38"/>
       <c r="AI6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1651,10 +1657,10 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
       <c r="AW8" s="39"/>
-      <c r="AX8" s="29" t="s">
+      <c r="AX8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AY8" s="29"/>
+      <c r="AY8" s="35"/>
     </row>
     <row r="9" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD9" s="24"/>
@@ -1673,8 +1679,35 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AK12" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="AK12:AY12"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AW8:AW10"/>
     <mergeCell ref="A1:AZ1"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
@@ -1686,13 +1719,6 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AW8:AW10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5AF07C-26B8-4BBF-8BBD-38668DE21149}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A91A14-EF73-4A54-822C-E1382AAF681A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="42">
   <si>
     <t>май</t>
   </si>
@@ -91,13 +91,73 @@
   </si>
   <si>
     <t>Дипломный проект: на выбор - Django MVT | Django DRF</t>
+  </si>
+  <si>
+    <t>24_04</t>
+  </si>
+  <si>
+    <t>26_04</t>
+  </si>
+  <si>
+    <t>27_04</t>
+  </si>
+  <si>
+    <t>01_05</t>
+  </si>
+  <si>
+    <t>03_05</t>
+  </si>
+  <si>
+    <t>04_05</t>
+  </si>
+  <si>
+    <t>08_05</t>
+  </si>
+  <si>
+    <t>10_05</t>
+  </si>
+  <si>
+    <t>11_05</t>
+  </si>
+  <si>
+    <t>18_05</t>
+  </si>
+  <si>
+    <t>19_05</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>Димаш</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Шолпан</t>
+  </si>
+  <si>
+    <t>Данил</t>
+  </si>
+  <si>
+    <t>Мансур</t>
+  </si>
+  <si>
+    <t>Эмиль</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Асанали</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +195,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="12">
@@ -553,6 +620,24 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,33 +647,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -869,156 +934,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AY10" sqref="AY10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="48" width="5.109375" style="1"/>
-    <col min="49" max="49" width="10" style="1" customWidth="1"/>
-    <col min="50" max="50" width="5.77734375" style="1" customWidth="1"/>
-    <col min="51" max="51" width="8.109375" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="5.109375" style="1"/>
+    <col min="1" max="10" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.21875" style="1" customWidth="1"/>
+    <col min="34" max="35" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.6640625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="14.6640625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="5.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="37"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32" t="s">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32" t="s">
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32" t="s">
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32" t="s">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32" t="s">
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32" t="s">
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="33"/>
+      <c r="AZ2" s="38"/>
     </row>
     <row r="3" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -1209,9 +1295,9 @@
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1272,7 +1358,7 @@
       <c r="AG4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="36"/>
+      <c r="AH4" s="30"/>
       <c r="AI4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1362,9 +1448,9 @@
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1425,7 +1511,7 @@
       <c r="AG5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="37"/>
+      <c r="AH5" s="31"/>
       <c r="AI5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1515,9 +1601,9 @@
       <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
@@ -1578,7 +1664,7 @@
       <c r="AG6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="38"/>
+      <c r="AH6" s="32"/>
       <c r="AI6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1656,23 +1742,29 @@
       <c r="AG8" s="23"/>
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
-      <c r="AW8" s="39"/>
-      <c r="AX8" s="35" t="s">
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AY8" s="35"/>
-    </row>
-    <row r="9" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AY8" s="29"/>
+    </row>
+    <row r="9" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AD9" s="24"/>
       <c r="AE9" s="24"/>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
       <c r="AI9" s="24"/>
-      <c r="AW9" s="39"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="40">
+        <v>124</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AW10" s="39"/>
+      <c r="AW10" s="34"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW11" s="1" t="s">
@@ -1680,34 +1772,128 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AK12" s="40" t="s">
+      <c r="AG12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40"/>
-      <c r="AS12" s="40"/>
-      <c r="AT12" s="40"/>
-      <c r="AU12" s="40"/>
-      <c r="AV12" s="40"/>
-      <c r="AW12" s="40"/>
-      <c r="AX12" s="40"/>
-      <c r="AY12" s="40"/>
+      <c r="AR12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AU13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AU14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AU15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AU16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU22" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="AK12:AY12"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AW8:AW10"/>
+  <mergeCells count="18">
     <mergeCell ref="A1:AZ1"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
@@ -1719,6 +1905,13 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AW8:AW10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A91A14-EF73-4A54-822C-E1382AAF681A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81A2C0-CAD5-4635-9B58-3E790F1C0BA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,6 +620,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,7 +654,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -937,7 +937,7 @@
   <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -971,140 +971,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33" t="s">
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33" t="s">
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33" t="s">
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33" t="s">
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33" t="s">
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33" t="s">
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="38"/>
+      <c r="AZ2" s="39"/>
     </row>
     <row r="3" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -1295,9 +1295,9 @@
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="AG4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="30"/>
+      <c r="AH4" s="31"/>
       <c r="AI4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1448,9 +1448,9 @@
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="AG5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="31"/>
+      <c r="AH5" s="32"/>
       <c r="AI5" s="14" t="s">
         <v>15</v>
       </c>
@@ -1601,9 +1601,9 @@
       <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="AG6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="32"/>
+      <c r="AH6" s="33"/>
       <c r="AI6" s="19" t="s">
         <v>15</v>
       </c>
@@ -1742,11 +1742,11 @@
       <c r="AG8" s="23"/>
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="29" t="s">
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AY8" s="29"/>
+      <c r="AY8" s="30"/>
     </row>
     <row r="9" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AD9" s="24"/>
@@ -1755,8 +1755,8 @@
       <c r="AG9" s="24"/>
       <c r="AH9" s="24"/>
       <c r="AI9" s="24"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="40">
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="29">
         <v>124</v>
       </c>
       <c r="AY9" s="1">
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AW10" s="34"/>
+      <c r="AW10" s="35"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW11" s="1" t="s">

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81A2C0-CAD5-4635-9B58-3E790F1C0BA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D8432-A422-4733-9370-7367639E4455}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="49">
   <si>
     <t>май</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Dj</t>
   </si>
   <si>
-    <t>Dip</t>
-  </si>
-  <si>
     <t>221/1</t>
   </si>
   <si>
@@ -151,13 +148,37 @@
   </si>
   <si>
     <t>Асанали</t>
+  </si>
+  <si>
+    <t>Дипломная работа</t>
+  </si>
+  <si>
+    <t>резерв</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>.clicke.</t>
+  </si>
+  <si>
+    <t>linedit1</t>
+  </si>
+  <si>
+    <t>linedit1.text()</t>
+  </si>
+  <si>
+    <t>requests.post(url, {"image": })</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,15 +217,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,14 +279,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -416,7 +424,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -429,7 +439,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -442,19 +454,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -467,102 +466,68 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,35 +561,19 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -633,25 +582,55 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,970 +913,980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.21875" style="1" customWidth="1"/>
-    <col min="34" max="35" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.6640625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="14.6640625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.5546875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="16384" width="5.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="A1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="29"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34" t="s">
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34" t="s">
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34" t="s">
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34" t="s">
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34" t="s">
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="39"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="16"/>
     </row>
-    <row r="3" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A3" s="30">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="31">
         <v>23</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="31">
         <v>30</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="31">
         <v>6</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="31">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="31">
         <v>20</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="31">
         <v>27</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="31">
         <v>4</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="31">
         <v>11</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="31">
         <v>18</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="31">
         <v>25</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="31">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="31">
         <v>8</v>
       </c>
-      <c r="N3" s="3">
-        <v>15</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="N3" s="31">
+        <v>15</v>
+      </c>
+      <c r="O3" s="31">
         <v>22</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="31">
         <v>29</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="31">
         <v>5</v>
       </c>
-      <c r="R3" s="3">
-        <v>12</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="R3" s="31">
+        <v>12</v>
+      </c>
+      <c r="S3" s="31">
         <v>19</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="31">
         <v>26</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="31">
         <v>3</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="31">
         <v>10</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="31">
         <v>17</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="31">
         <v>24</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="31">
         <v>31</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="31">
         <v>7</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="31">
         <v>14</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="31">
         <v>21</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="31">
         <v>28</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="31">
         <v>5</v>
       </c>
-      <c r="AE3" s="3">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="3">
+      <c r="AE3" s="31">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="31">
         <v>19</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="31">
         <v>26</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AH3" s="31">
         <v>2</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="31">
         <v>9</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="31">
         <v>16</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="31">
         <v>23</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="31">
         <v>30</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="31">
         <v>6</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AN3" s="31">
         <v>13</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="31">
         <v>20</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="31">
         <v>27</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="31">
         <v>6</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AR3" s="31">
         <v>13</v>
       </c>
-      <c r="AS3" s="3">
+      <c r="AS3" s="31">
         <v>20</v>
       </c>
-      <c r="AT3" s="3">
+      <c r="AT3" s="31">
         <v>27</v>
       </c>
-      <c r="AU3" s="3">
+      <c r="AU3" s="31">
         <v>3</v>
       </c>
-      <c r="AV3" s="3">
+      <c r="AV3" s="31">
         <v>10</v>
       </c>
-      <c r="AW3" s="3">
+      <c r="AW3" s="31">
         <v>17</v>
       </c>
-      <c r="AX3" s="3">
+      <c r="AX3" s="31">
         <v>24</v>
       </c>
-      <c r="AY3" s="3">
+      <c r="AY3" s="31">
         <v>1</v>
       </c>
-      <c r="AZ3" s="4">
+      <c r="AZ3" s="31">
         <v>8</v>
+      </c>
+      <c r="BA3" s="32">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="7" t="s">
+      <c r="A4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AB4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AC4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AD4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AE4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="AZ4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA4" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="AE4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX4" s="13">
+        <v>24</v>
+      </c>
+      <c r="AY4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="24">
+        <v>8</v>
+      </c>
+      <c r="BA4" s="25"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="12" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX5" s="13">
+        <v>26</v>
+      </c>
+      <c r="AY5" s="13">
+        <v>3</v>
+      </c>
+      <c r="AZ5" s="24">
+        <v>10</v>
+      </c>
+      <c r="BA5" s="7">
         <v>18</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="AZ5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA5" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="18" t="s">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="Z6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="18" t="s">
+      <c r="AA6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="18" t="s">
+      <c r="AB6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="18" t="s">
+      <c r="AC6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="18" t="s">
+      <c r="AD6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AE6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ6" s="21" t="s">
-        <v>16</v>
+      <c r="AE6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX6" s="14">
+        <v>27</v>
+      </c>
+      <c r="AY6" s="12">
+        <v>4</v>
+      </c>
+      <c r="AZ6" s="12">
+        <v>11</v>
+      </c>
+      <c r="BA6" s="35">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
+    <row r="7" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="30" t="s">
+      <c r="AG8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AS8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AY8" s="30"/>
+      <c r="AW8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="29">
-        <v>124</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>2</v>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AU9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AW10" s="35"/>
+      <c r="AF10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AG11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="AW11" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AG12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AU12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW12" s="1" t="s">
+      <c r="AW13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV14" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AW14" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AU13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW13" s="1" t="s">
+    <row r="15" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV15" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AW15" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AU14" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW14" s="1" t="s">
+    <row r="16" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV16" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AU15" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV15" s="1" t="s">
+      <c r="AW16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AU16" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU17" s="20" t="s">
-        <v>27</v>
+      <c r="AU17" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU19" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU21" s="20" t="s">
+      <c r="AU18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AV21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU22" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="AV18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW18" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:AZ1"/>
+  <mergeCells count="20">
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AG8:AQ8"/>
+    <mergeCell ref="AY2:BA2"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -1905,13 +1894,7 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="A1:BA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D8432-A422-4733-9370-7367639E4455}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B523E7-3C5F-416D-B5B0-7807222B224E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -567,6 +567,51 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,33 +621,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,27 +628,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,7 +913,7 @@
   <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+      <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -952,306 +949,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="35"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15" t="s">
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15" t="s">
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15" t="s">
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15" t="s">
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15" t="s">
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15" t="s">
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="16"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="31"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="A3" s="20">
         <v>16</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="21">
         <v>23</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="21">
         <v>30</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="21">
         <v>6</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="21">
         <v>13</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="21">
         <v>20</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="21">
         <v>27</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="21">
         <v>4</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="21">
         <v>11</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="21">
         <v>18</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="21">
         <v>25</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="21">
         <v>1</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="21">
         <v>8</v>
       </c>
-      <c r="N3" s="31">
-        <v>15</v>
-      </c>
-      <c r="O3" s="31">
+      <c r="N3" s="21">
+        <v>15</v>
+      </c>
+      <c r="O3" s="21">
         <v>22</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="21">
         <v>29</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="21">
         <v>5</v>
       </c>
-      <c r="R3" s="31">
-        <v>12</v>
-      </c>
-      <c r="S3" s="31">
+      <c r="R3" s="21">
+        <v>12</v>
+      </c>
+      <c r="S3" s="21">
         <v>19</v>
       </c>
-      <c r="T3" s="31">
+      <c r="T3" s="21">
         <v>26</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="21">
         <v>3</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="21">
         <v>10</v>
       </c>
-      <c r="W3" s="31">
+      <c r="W3" s="21">
         <v>17</v>
       </c>
-      <c r="X3" s="31">
+      <c r="X3" s="21">
         <v>24</v>
       </c>
-      <c r="Y3" s="31">
+      <c r="Y3" s="21">
         <v>31</v>
       </c>
-      <c r="Z3" s="31">
+      <c r="Z3" s="21">
         <v>7</v>
       </c>
-      <c r="AA3" s="31">
+      <c r="AA3" s="21">
         <v>14</v>
       </c>
-      <c r="AB3" s="31">
+      <c r="AB3" s="21">
         <v>21</v>
       </c>
-      <c r="AC3" s="31">
+      <c r="AC3" s="21">
         <v>28</v>
       </c>
-      <c r="AD3" s="31">
+      <c r="AD3" s="21">
         <v>5</v>
       </c>
-      <c r="AE3" s="31">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="31">
+      <c r="AE3" s="21">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="21">
         <v>19</v>
       </c>
-      <c r="AG3" s="31">
+      <c r="AG3" s="21">
         <v>26</v>
       </c>
-      <c r="AH3" s="31">
+      <c r="AH3" s="21">
         <v>2</v>
       </c>
-      <c r="AI3" s="31">
+      <c r="AI3" s="21">
         <v>9</v>
       </c>
-      <c r="AJ3" s="31">
+      <c r="AJ3" s="21">
         <v>16</v>
       </c>
-      <c r="AK3" s="31">
+      <c r="AK3" s="21">
         <v>23</v>
       </c>
-      <c r="AL3" s="31">
+      <c r="AL3" s="21">
         <v>30</v>
       </c>
-      <c r="AM3" s="31">
+      <c r="AM3" s="21">
         <v>6</v>
       </c>
-      <c r="AN3" s="31">
+      <c r="AN3" s="21">
         <v>13</v>
       </c>
-      <c r="AO3" s="31">
+      <c r="AO3" s="21">
         <v>20</v>
       </c>
-      <c r="AP3" s="31">
+      <c r="AP3" s="21">
         <v>27</v>
       </c>
-      <c r="AQ3" s="31">
+      <c r="AQ3" s="21">
         <v>6</v>
       </c>
-      <c r="AR3" s="31">
+      <c r="AR3" s="21">
         <v>13</v>
       </c>
-      <c r="AS3" s="31">
+      <c r="AS3" s="21">
         <v>20</v>
       </c>
-      <c r="AT3" s="31">
+      <c r="AT3" s="21">
         <v>27</v>
       </c>
-      <c r="AU3" s="31">
+      <c r="AU3" s="21">
         <v>3</v>
       </c>
-      <c r="AV3" s="31">
+      <c r="AV3" s="21">
         <v>10</v>
       </c>
-      <c r="AW3" s="31">
+      <c r="AW3" s="21">
         <v>17</v>
       </c>
-      <c r="AX3" s="31">
+      <c r="AX3" s="21">
         <v>24</v>
       </c>
-      <c r="AY3" s="31">
+      <c r="AY3" s="21">
         <v>1</v>
       </c>
-      <c r="AZ3" s="31">
+      <c r="AZ3" s="21">
         <v>8</v>
       </c>
-      <c r="BA3" s="32">
+      <c r="BA3" s="22">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1281,9 +1278,9 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1317,22 +1314,22 @@
       <c r="X4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Y4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="Z4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="23" t="s">
+      <c r="AC4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AD4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="AE4" s="6" t="s">
@@ -1344,7 +1341,7 @@
       <c r="AG4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="18"/>
+      <c r="AH4" s="28"/>
       <c r="AI4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1396,10 +1393,10 @@
       <c r="AY4" s="13">
         <v>1</v>
       </c>
-      <c r="AZ4" s="24">
+      <c r="AZ4" s="17">
         <v>8</v>
       </c>
-      <c r="BA4" s="25"/>
+      <c r="BA4" s="18"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1432,9 +1429,9 @@
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1495,7 +1492,7 @@
       <c r="AG5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="18"/>
+      <c r="AH5" s="28"/>
       <c r="AI5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1544,7 @@
       <c r="AY5" s="13">
         <v>3</v>
       </c>
-      <c r="AZ5" s="24">
+      <c r="AZ5" s="17">
         <v>10</v>
       </c>
       <c r="BA5" s="7">
@@ -1585,9 +1582,9 @@
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1648,7 +1645,7 @@
       <c r="AG6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="29"/>
       <c r="AI6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1703,36 +1700,36 @@
       <c r="AZ6" s="12">
         <v>11</v>
       </c>
-      <c r="BA6" s="35">
+      <c r="BA6" s="23">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AG8" s="22" t="s">
+      <c r="AG8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AS8" s="22" t="s">
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AS8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="34"/>
+      <c r="AT8" s="27"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1806,10 +1803,10 @@
       <c r="AF13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AS13" s="22" t="s">
+      <c r="AS13" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AT13" s="34"/>
+      <c r="AT13" s="27"/>
       <c r="AU13" s="12" t="s">
         <v>26</v>
       </c>
@@ -1865,21 +1862,23 @@
       </c>
     </row>
     <row r="18" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU18" s="36" t="s">
+      <c r="AU18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AV18" s="33" t="s">
+      <c r="AV18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AW18" s="22"/>
+      <c r="AW18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="A1:BA1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:T2"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AL2"/>
@@ -1888,13 +1887,11 @@
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="A1:BA1"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B523E7-3C5F-416D-B5B0-7807222B224E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F3B24D-76AC-4AD2-9E9D-A23E53C7FF4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="53">
   <si>
     <t>май</t>
   </si>
@@ -99,79 +99,91 @@
     <t>27_04</t>
   </si>
   <si>
+    <t>03_05</t>
+  </si>
+  <si>
+    <t>04_05</t>
+  </si>
+  <si>
+    <t>10_05</t>
+  </si>
+  <si>
+    <t>11_05</t>
+  </si>
+  <si>
+    <t>18_05</t>
+  </si>
+  <si>
+    <t>19_05</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>Димаш</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Шолпан</t>
+  </si>
+  <si>
+    <t>Данил</t>
+  </si>
+  <si>
+    <t>Мансур</t>
+  </si>
+  <si>
+    <t>Эмиль</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Асанали</t>
+  </si>
+  <si>
+    <t>Дипломная работа</t>
+  </si>
+  <si>
+    <t>резерв</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>.clicke.</t>
+  </si>
+  <si>
+    <t>linedit1</t>
+  </si>
+  <si>
+    <t>linedit1.text()</t>
+  </si>
+  <si>
+    <t>requests.post(url, {"image": })</t>
+  </si>
+  <si>
+    <t>12_05</t>
+  </si>
+  <si>
+    <t>05_05</t>
+  </si>
+  <si>
+    <t>до 1 июня</t>
+  </si>
+  <si>
+    <t>20_05</t>
+  </si>
+  <si>
+    <t>21_05</t>
+  </si>
+  <si>
     <t>01_05</t>
-  </si>
-  <si>
-    <t>03_05</t>
-  </si>
-  <si>
-    <t>04_05</t>
-  </si>
-  <si>
-    <t>08_05</t>
-  </si>
-  <si>
-    <t>10_05</t>
-  </si>
-  <si>
-    <t>11_05</t>
-  </si>
-  <si>
-    <t>18_05</t>
-  </si>
-  <si>
-    <t>19_05</t>
-  </si>
-  <si>
-    <t>Николай</t>
-  </si>
-  <si>
-    <t>Димаш</t>
-  </si>
-  <si>
-    <t>Елена</t>
-  </si>
-  <si>
-    <t>Шолпан</t>
-  </si>
-  <si>
-    <t>Данил</t>
-  </si>
-  <si>
-    <t>Мансур</t>
-  </si>
-  <si>
-    <t>Эмиль</t>
-  </si>
-  <si>
-    <t>Роман</t>
-  </si>
-  <si>
-    <t>Асанали</t>
-  </si>
-  <si>
-    <t>Дипломная работа</t>
-  </si>
-  <si>
-    <t>резерв</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>.clicke.</t>
-  </si>
-  <si>
-    <t>linedit1</t>
-  </si>
-  <si>
-    <t>linedit1.text()</t>
-  </si>
-  <si>
-    <t>requests.post(url, {"image": })</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +291,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -523,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,12 +615,15 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,22 +633,25 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AQ10" sqref="AQ10"/>
+    <sheetView tabSelected="1" topLeftCell="R7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -949,142 +973,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="33"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30" t="s">
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30" t="s">
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30" t="s">
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30" t="s">
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30" t="s">
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30" t="s">
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30" t="s">
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="31"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="36"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -1278,9 +1302,9 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1341,7 +1365,7 @@
       <c r="AG4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="28"/>
+      <c r="AH4" s="29"/>
       <c r="AI4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1389,12 +1413,6 @@
       </c>
       <c r="AX4" s="13">
         <v>24</v>
-      </c>
-      <c r="AY4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="17">
-        <v>8</v>
       </c>
       <c r="BA4" s="18"/>
     </row>
@@ -1429,9 +1447,9 @@
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1510,7 @@
       <c r="AG5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="28"/>
+      <c r="AH5" s="29"/>
       <c r="AI5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1582,9 +1600,9 @@
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1645,7 +1663,7 @@
       <c r="AG6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="29"/>
+      <c r="AH6" s="30"/>
       <c r="AI6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1712,7 @@
       <c r="AX6" s="14">
         <v>27</v>
       </c>
-      <c r="AY6" s="12">
+      <c r="AY6" s="13">
         <v>4</v>
       </c>
       <c r="AZ6" s="12">
@@ -1704,13 +1722,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
+      <c r="AY7" s="12">
+        <v>5</v>
+      </c>
+      <c r="AZ7" s="17">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AG8" s="26" t="s">
@@ -1729,150 +1753,187 @@
       <c r="AS8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="27"/>
+      <c r="AT8" s="28"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="AV8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AW8" s="1" t="s">
-        <v>32</v>
+      <c r="AW8" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AV9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AV9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AU10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AV10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="AV10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AG11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AU11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AV11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="AV11" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AU12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="AS13" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="AV13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AU14" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AU15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AU16" s="12" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AU17" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AU18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV18" s="25" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="AV18" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="AW18" s="26"/>
     </row>
+    <row r="19" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW19" s="26"/>
+    </row>
+    <row r="20" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW20" s="26"/>
+    </row>
+    <row r="21" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW21" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="U2:Y2"/>
+  <mergeCells count="24">
     <mergeCell ref="A1:BA1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -1882,16 +1943,21 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AG8:AQ8"/>
     <mergeCell ref="AY2:BA2"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="U2:Y2"/>
     <mergeCell ref="AS8:AT8"/>
     <mergeCell ref="AS13:AT13"/>
     <mergeCell ref="K4:M6"/>
     <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AG8:AQ8"/>
+    <mergeCell ref="AY9:BA11"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV18:AW18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F3B24D-76AC-4AD2-9E9D-A23E53C7FF4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08700D56-15B6-4FE3-8F84-4C6082777F6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="55">
   <si>
     <t>май</t>
   </si>
@@ -174,9 +174,6 @@
     <t>05_05</t>
   </si>
   <si>
-    <t>до 1 июня</t>
-  </si>
-  <si>
     <t>20_05</t>
   </si>
   <si>
@@ -184,6 +181,15 @@
   </si>
   <si>
     <t>01_05</t>
+  </si>
+  <si>
+    <t>Занятия</t>
+  </si>
+  <si>
+    <t>Ответы на вопросы</t>
+  </si>
+  <si>
+    <t>Python bot</t>
   </si>
 </sst>
 </file>
@@ -618,40 +624,40 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -936,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+    <sheetView tabSelected="1" topLeftCell="AH9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +970,7 @@
     <col min="46" max="46" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.6640625" style="1" customWidth="1"/>
     <col min="50" max="50" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.21875" style="1" bestFit="1" customWidth="1"/>
@@ -973,142 +979,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="33"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="29"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35" t="s">
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35" t="s">
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35" t="s">
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35" t="s">
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="36"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="32"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -1302,9 +1308,9 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1371,7 @@
       <c r="AG4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="29"/>
+      <c r="AH4" s="35"/>
       <c r="AI4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1447,9 +1453,9 @@
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
       <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1510,7 +1516,7 @@
       <c r="AG5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="29"/>
+      <c r="AH5" s="35"/>
       <c r="AI5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1600,9 +1606,9 @@
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1663,7 +1669,7 @@
       <c r="AG6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="30"/>
+      <c r="AH6" s="36"/>
       <c r="AI6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1737,23 +1743,23 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AG8" s="26" t="s">
+      <c r="AG8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AS8" s="26" t="s">
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AS8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="28"/>
+      <c r="AT8" s="34"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1774,11 +1780,9 @@
       <c r="AW9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AY9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF10" s="1" t="s">
@@ -1796,9 +1800,9 @@
       <c r="AW10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="33"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AG11" s="1" t="s">
@@ -1810,15 +1814,15 @@
       <c r="AU11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AV11" s="37" t="s">
+      <c r="AV11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AW11" s="37" t="s">
+      <c r="AW11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="33"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF12" s="1" t="s">
@@ -1827,62 +1831,60 @@
       <c r="AU12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AV12" s="1" t="s">
+      <c r="AV12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AW12" s="1" t="s">
+      <c r="AW12" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS13" s="26" t="s">
+      <c r="AS13" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV13" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW13" s="33"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AU14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV14" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW14" s="33"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AU15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV15" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW15" s="33"/>
+    </row>
+    <row r="16" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AS16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AT16" s="34"/>
       <c r="AU16" s="12" t="s">
         <v>47</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
@@ -1890,50 +1892,67 @@
         <v>28</v>
       </c>
       <c r="AV17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AU20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AW17" s="1" t="s">
+      <c r="AW20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW18" s="26"/>
-    </row>
-    <row r="19" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU19" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW19" s="26"/>
-    </row>
-    <row r="20" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU20" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW20" s="26"/>
     </row>
     <row r="21" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AU21" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV21" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AW21" s="26"/>
+      <c r="AW21" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="AY9:BA11"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AS16:AT16"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AG8:AQ8"/>
+    <mergeCell ref="AS13:AT13"/>
     <mergeCell ref="A1:BA1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -1948,16 +1967,6 @@
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AG8:AQ8"/>
-    <mergeCell ref="AY9:BA11"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV18:AW18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08700D56-15B6-4FE3-8F84-4C6082777F6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A865A04-2B57-4F8A-9E5C-312F7FD06470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="54">
   <si>
     <t>май</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Дипломная работа</t>
   </si>
   <si>
-    <t>резерв</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>21_05</t>
   </si>
   <si>
-    <t>01_05</t>
-  </si>
-  <si>
     <t>Занятия</t>
   </si>
   <si>
@@ -190,6 +184,9 @@
   </si>
   <si>
     <t>Python bot</t>
+  </si>
+  <si>
+    <t>24_06</t>
   </si>
 </sst>
 </file>
@@ -304,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -543,11 +540,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,15 +628,27 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,19 +667,16 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA21"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH9" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AX14" sqref="AX14"/>
+    <sheetView tabSelected="1" topLeftCell="AK13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -969,7 +988,7 @@
     <col min="45" max="45" width="23.5546875" style="1" customWidth="1"/>
     <col min="46" max="46" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.44140625" style="1" customWidth="1"/>
     <col min="49" max="49" width="16.6640625" style="1" customWidth="1"/>
     <col min="50" max="50" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -979,142 +998,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="33"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31" t="s">
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31" t="s">
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31" t="s">
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31" t="s">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31" t="s">
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31" t="s">
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31" t="s">
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31" t="s">
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="32"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="36"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -1308,9 +1327,9 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1371,7 +1390,7 @@
       <c r="AG4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="35"/>
+      <c r="AH4" s="29"/>
       <c r="AI4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1453,9 +1472,9 @@
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1535,7 @@
       <c r="AG5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="35"/>
+      <c r="AH5" s="29"/>
       <c r="AI5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1606,9 +1625,9 @@
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1669,7 +1688,7 @@
       <c r="AG6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="36"/>
+      <c r="AH6" s="30"/>
       <c r="AI6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1743,30 +1762,30 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AG8" s="33" t="s">
+      <c r="AG8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="33"/>
-      <c r="AS8" s="33" t="s">
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AS8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="34"/>
+      <c r="AT8" s="28"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AV8" s="25" t="s">
+      <c r="AV8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AW8" s="25" t="s">
+      <c r="AW8" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1774,185 +1793,193 @@
       <c r="AU9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AV9" s="25" t="s">
+      <c r="AV9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AW9" s="25" t="s">
+      <c r="AW9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AU10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AV10" s="25" t="s">
+      <c r="AV10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AW10" s="25" t="s">
+      <c r="AW10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="33"/>
-      <c r="BA10" s="33"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AG11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH11" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="AU11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AV11" s="25" t="s">
+      <c r="AV11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AW11" s="25" t="s">
+      <c r="AW11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="33"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AV12" s="25" t="s">
+      <c r="AV12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AW12" s="26" t="s">
+      <c r="AW12" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS13" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT13" s="34"/>
+        <v>45</v>
+      </c>
+      <c r="AS13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT13" s="28"/>
       <c r="AU13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV13" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW13" s="33"/>
+        <v>47</v>
+      </c>
+      <c r="AV13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW13" s="26"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AV14" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW14" s="33"/>
+      <c r="AV14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW14" s="26"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AU15" s="6" t="s">
+      <c r="AU15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AV15" s="37" t="s">
+      <c r="AV15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW15" s="26"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AS16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV16" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW16" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW17" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV18" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW18" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV19" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW19" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV20" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW20" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="45:49" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+    </row>
+    <row r="22" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS22" s="38"/>
+      <c r="AT22" s="38"/>
+      <c r="AU22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AW15" s="33"/>
-    </row>
-    <row r="16" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AS16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW17" s="1" t="s">
+      <c r="AV22" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW22" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="47:49" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AU21" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV21" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW21" s="33"/>
-    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="AY9:BA11"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AS16:AT16"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AG8:AQ8"/>
-    <mergeCell ref="AS13:AT13"/>
+  <mergeCells count="24">
     <mergeCell ref="A1:BA1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -1967,6 +1994,16 @@
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AG8:AQ8"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AS16:AT22"/>
+    <mergeCell ref="AY9:BA11"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV14:AW14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A865A04-2B57-4F8A-9E5C-312F7FD06470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929ADD3-45DF-45BA-AFF8-AA89B4E5CAB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="53">
   <si>
     <t>май</t>
   </si>
@@ -165,18 +165,9 @@
     <t>requests.post(url, {"image": })</t>
   </si>
   <si>
-    <t>12_05</t>
-  </si>
-  <si>
     <t>05_05</t>
   </si>
   <si>
-    <t>20_05</t>
-  </si>
-  <si>
-    <t>21_05</t>
-  </si>
-  <si>
     <t>Занятия</t>
   </si>
   <si>
@@ -187,6 +178,12 @@
   </si>
   <si>
     <t>24_06</t>
+  </si>
+  <si>
+    <t>17_06</t>
+  </si>
+  <si>
+    <t>27_05</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -553,11 +550,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,49 +675,61 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,7 +1015,7 @@
   <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="AS15" sqref="AS15"/>
+      <selection activeCell="AV15" sqref="AV15:AW15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -998,142 +1051,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="31"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35" t="s">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35" t="s">
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35" t="s">
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35" t="s">
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35" t="s">
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="36"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="34"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -1327,9 +1380,9 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1390,7 +1443,7 @@
       <c r="AG4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="29"/>
+      <c r="AH4" s="37"/>
       <c r="AI4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1472,9 +1525,9 @@
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1535,7 +1588,7 @@
       <c r="AG5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="29"/>
+      <c r="AH5" s="37"/>
       <c r="AI5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1625,9 +1678,9 @@
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1688,7 +1741,7 @@
       <c r="AG6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="30"/>
+      <c r="AH6" s="38"/>
       <c r="AI6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1762,23 +1815,23 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AG8" s="26" t="s">
+      <c r="AG8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AS8" s="26" t="s">
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AS8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="28"/>
+      <c r="AT8" s="36"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1799,9 +1852,9 @@
       <c r="AW9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AY9" s="26"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="26"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF10" s="1" t="s">
@@ -1819,9 +1872,9 @@
       <c r="AW10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
+      <c r="AY10" s="35"/>
+      <c r="AZ10" s="35"/>
+      <c r="BA10" s="35"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AG11" s="1" t="s">
@@ -1839,9 +1892,9 @@
       <c r="AW11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="35"/>
+      <c r="BA11" s="35"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF12" s="1" t="s">
@@ -1861,125 +1914,123 @@
       <c r="AF13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AS13" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT13" s="28"/>
+      <c r="AS13" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT13" s="36"/>
       <c r="AU13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW13" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="AV13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW13" s="35"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AV14" s="27" t="s">
+      <c r="AV14" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW14" s="35"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AU15" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV15" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW15" s="35"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="AS16" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW16" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW17" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AW14" s="26"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AU15" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV15" s="27" t="s">
+      <c r="AV18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW18" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AW15" s="26"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AS16" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV16" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW16" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV17" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW17" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV18" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW18" s="39" t="s">
+      <c r="AV19" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW19" s="39" t="s">
+      <c r="AW19" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="38"/>
-      <c r="AU20" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV20" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW20" s="39" t="s">
-        <v>38</v>
+      <c r="AS20" s="43"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW20" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="45:49" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
     </row>
     <row r="22" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS22" s="38"/>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV22" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW22" s="39" t="s">
-        <v>32</v>
-      </c>
+      <c r="AS22" s="40"/>
+      <c r="AT22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AY9:BA11"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AS16:AT20"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AG8:AQ8"/>
+    <mergeCell ref="AS13:AT13"/>
     <mergeCell ref="A1:BA1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -1994,16 +2045,6 @@
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AG8:AQ8"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AS16:AT22"/>
-    <mergeCell ref="AY9:BA11"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV14:AW14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929ADD3-45DF-45BA-AFF8-AA89B4E5CAB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2AAA40-094A-4681-8868-0C3834A86F48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="54">
   <si>
     <t>май</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>27_05</t>
+  </si>
+  <si>
+    <t>20_05</t>
   </si>
 </sst>
 </file>
@@ -684,52 +687,52 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,7 +1018,7 @@
   <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AK13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="AV15" sqref="AV15:AW15"/>
+      <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -1051,142 +1054,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="31"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="41"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33" t="s">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33" t="s">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33" t="s">
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33" t="s">
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33" t="s">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33" t="s">
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33" t="s">
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33" t="s">
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="34"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="44"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -1815,23 +1818,23 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AS8" s="35" t="s">
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AS8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="36"/>
+      <c r="AT8" s="34"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1852,9 +1855,9 @@
       <c r="AW9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF10" s="1" t="s">
@@ -1872,9 +1875,9 @@
       <c r="AW10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AY10" s="35"/>
-      <c r="AZ10" s="35"/>
-      <c r="BA10" s="35"/>
+      <c r="AY10" s="30"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AG11" s="1" t="s">
@@ -1892,9 +1895,9 @@
       <c r="AW11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="35"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF12" s="1" t="s">
@@ -1914,41 +1917,41 @@
       <c r="AF13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AS13" s="35" t="s">
+      <c r="AS13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AT13" s="36"/>
+      <c r="AT13" s="34"/>
       <c r="AU13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV13" s="39" t="s">
+      <c r="AV13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AW13" s="35"/>
+      <c r="AW13" s="30"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AV14" s="39" t="s">
+      <c r="AV14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AW14" s="35"/>
+      <c r="AW14" s="30"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AV15" s="39" t="s">
+      <c r="AV15" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AW15" s="35"/>
+      <c r="AW15" s="30"/>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AS16" s="41" t="s">
+      <c r="AS16" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AT16" s="42"/>
+      <c r="AT16" s="33"/>
       <c r="AU16" s="28" t="s">
         <v>28</v>
       </c>
@@ -1960,77 +1963,70 @@
       </c>
     </row>
     <row r="17" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="36"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="34"/>
       <c r="AU17" s="28" t="s">
         <v>29</v>
       </c>
       <c r="AV17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AW17" s="27" t="s">
+    </row>
+    <row r="18" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV18" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="28" t="s">
+    <row r="19" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AV18" s="27" t="s">
+      <c r="AV19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AW18" s="27" t="s">
+      <c r="AW19" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="17" t="s">
+    <row r="20" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AV19" s="27" t="s">
+      <c r="AV20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AW19" s="27" t="s">
+      <c r="AW20" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS20" s="43"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="17" t="s">
+    <row r="21" spans="45:49" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS21" s="35"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AV20" s="27" t="s">
+      <c r="AV21" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AW20" s="27" t="s">
+      <c r="AW21" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="45:49" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-    </row>
     <row r="22" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS22" s="40"/>
-      <c r="AT22" s="40"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AY9:BA11"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AS16:AT20"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AG8:AQ8"/>
-    <mergeCell ref="AS13:AT13"/>
     <mergeCell ref="A1:BA1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -2045,6 +2041,16 @@
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AG8:AQ8"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AY9:BA11"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AS16:AT21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2AAA40-094A-4681-8868-0C3834A86F48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B85E4-CB58-421E-8FA6-7546821CAC31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2520" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,9 +690,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,37 +729,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="AP18" sqref="AP18"/>
+    <sheetView tabSelected="1" topLeftCell="AG13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AV16" sqref="AV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -1054,142 +1057,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="41"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="32"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43" t="s">
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43" t="s">
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43" t="s">
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43" t="s">
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="44"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="35"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -1383,9 +1386,9 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1446,7 +1449,7 @@
       <c r="AG4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="37"/>
+      <c r="AH4" s="38"/>
       <c r="AI4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1528,9 +1531,9 @@
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1591,7 +1594,7 @@
       <c r="AG5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="37"/>
+      <c r="AH5" s="38"/>
       <c r="AI5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1681,9 +1684,9 @@
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
       <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1747,7 @@
       <c r="AG6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="38"/>
+      <c r="AH6" s="39"/>
       <c r="AI6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1818,23 +1821,23 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AG8" s="30" t="s">
+      <c r="AG8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="30"/>
-      <c r="AS8" s="30" t="s">
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AS8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="34"/>
+      <c r="AT8" s="37"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1855,9 +1858,9 @@
       <c r="AW9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF10" s="1" t="s">
@@ -1875,9 +1878,9 @@
       <c r="AW10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="30"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="36"/>
+      <c r="BA10" s="36"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AG11" s="1" t="s">
@@ -1895,9 +1898,9 @@
       <c r="AW11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="30"/>
-      <c r="BA11" s="30"/>
+      <c r="AY11" s="36"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="36"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF12" s="1" t="s">
@@ -1917,45 +1920,45 @@
       <c r="AF13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AS13" s="30" t="s">
+      <c r="AS13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="AT13" s="34"/>
+      <c r="AT13" s="37"/>
       <c r="AU13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV13" s="31" t="s">
+      <c r="AV13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AW13" s="30"/>
+      <c r="AW13" s="36"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AV14" s="31" t="s">
+      <c r="AV14" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AW14" s="30"/>
+      <c r="AW14" s="36"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AV15" s="31" t="s">
+      <c r="AV15" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AW15" s="30"/>
+      <c r="AW15" s="36"/>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AS16" s="32" t="s">
+      <c r="AS16" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AT16" s="33"/>
+      <c r="AT16" s="42"/>
       <c r="AU16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AV16" s="27" t="s">
+      <c r="AV16" s="45" t="s">
         <v>37</v>
       </c>
       <c r="AW16" s="27" t="s">
@@ -1963,8 +1966,8 @@
       </c>
     </row>
     <row r="17" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="34"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="37"/>
       <c r="AU17" s="28" t="s">
         <v>29</v>
       </c>
@@ -1973,8 +1976,8 @@
       </c>
     </row>
     <row r="18" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="34"/>
+      <c r="AS18" s="40"/>
+      <c r="AT18" s="37"/>
       <c r="AU18" s="28" t="s">
         <v>53</v>
       </c>
@@ -1983,8 +1986,8 @@
       </c>
     </row>
     <row r="19" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="34"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="37"/>
       <c r="AU19" s="28" t="s">
         <v>52</v>
       </c>
@@ -1996,8 +1999,8 @@
       </c>
     </row>
     <row r="20" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="34"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="37"/>
       <c r="AU20" s="17" t="s">
         <v>51</v>
       </c>
@@ -2009,8 +2012,8 @@
       </c>
     </row>
     <row r="21" spans="45:49" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AS21" s="35"/>
-      <c r="AT21" s="36"/>
+      <c r="AS21" s="43"/>
+      <c r="AT21" s="44"/>
       <c r="AU21" s="17" t="s">
         <v>50</v>
       </c>
@@ -2027,6 +2030,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AY9:BA11"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AS16:AT21"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AG8:AQ8"/>
+    <mergeCell ref="AS13:AT13"/>
     <mergeCell ref="A1:BA1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -2041,16 +2054,6 @@
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AG8:AQ8"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AY9:BA11"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AS16:AT21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B85E4-CB58-421E-8FA6-7546821CAC31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB41FF3-2005-46F1-9801-14D1F61EE6A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2520" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="55">
   <si>
     <t>май</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>20_05</t>
+  </si>
+  <si>
+    <t>10_06</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,8 +690,35 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,36 +736,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AV16" sqref="AV16"/>
+    <sheetView tabSelected="1" topLeftCell="AG10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -1057,142 +1057,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="32"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="41"/>
     </row>
     <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34" t="s">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34" t="s">
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34" t="s">
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34" t="s">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34" t="s">
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34" t="s">
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="35"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="44"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -1386,9 +1386,9 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="AG4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="38"/>
+      <c r="AH4" s="37"/>
       <c r="AI4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1531,9 +1531,9 @@
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="AG5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="38"/>
+      <c r="AH5" s="37"/>
       <c r="AI5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1684,9 +1684,9 @@
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="AG6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="39"/>
+      <c r="AH6" s="38"/>
       <c r="AI6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1821,23 +1821,23 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AG8" s="36" t="s">
+      <c r="AG8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AS8" s="36" t="s">
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AS8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="37"/>
+      <c r="AT8" s="34"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1858,9 +1858,9 @@
       <c r="AW9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF10" s="1" t="s">
@@ -1878,9 +1878,9 @@
       <c r="AW10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
+      <c r="AY10" s="30"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AG11" s="1" t="s">
@@ -1898,9 +1898,9 @@
       <c r="AW11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="36"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AF12" s="1" t="s">
@@ -1920,126 +1920,119 @@
       <c r="AF13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AS13" s="36" t="s">
+      <c r="AS13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AT13" s="37"/>
+      <c r="AT13" s="34"/>
       <c r="AU13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV13" s="40" t="s">
+      <c r="AV13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AW13" s="36"/>
+      <c r="AW13" s="30"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AV14" s="40" t="s">
+      <c r="AV14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AW14" s="36"/>
+      <c r="AW14" s="30"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AU15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AV15" s="40" t="s">
+      <c r="AV15" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AW15" s="36"/>
+      <c r="AW15" s="30"/>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AS16" s="41" t="s">
+      <c r="AS16" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AT16" s="42"/>
+      <c r="AT16" s="33"/>
       <c r="AU16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AV16" s="45" t="s">
+      <c r="AV16" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AW16" s="27" t="s">
+      <c r="AW16" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS17" s="40"/>
-      <c r="AT17" s="37"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="34"/>
       <c r="AU17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AV17" s="27" t="s">
+      <c r="AV17" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS18" s="40"/>
-      <c r="AT18" s="37"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="34"/>
       <c r="AU18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AV18" s="27" t="s">
+      <c r="AV18" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS19" s="40"/>
-      <c r="AT19" s="37"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="34"/>
       <c r="AU19" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AV19" s="27" t="s">
+      <c r="AV19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AW19" s="27" t="s">
+    </row>
+    <row r="20" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV20" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="37"/>
-      <c r="AU20" s="17" t="s">
+    <row r="21" spans="45:49" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="34"/>
+      <c r="AU21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AV20" s="27" t="s">
+      <c r="AV21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AW20" s="27" t="s">
+      <c r="AW21" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="45:49" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AS21" s="43"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="17" t="s">
+    <row r="22" spans="45:49" x14ac:dyDescent="0.3">
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AV21" s="27" t="s">
+      <c r="AV22" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AW21" s="27" t="s">
+      <c r="AW22" s="27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AY9:BA11"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AS16:AT21"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AG8:AQ8"/>
-    <mergeCell ref="AS13:AT13"/>
     <mergeCell ref="A1:BA1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -2054,6 +2047,16 @@
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AG8:AQ8"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AY9:BA11"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AS16:AT22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB41FF3-2005-46F1-9801-14D1F61EE6A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29798A64-314B-40A0-A30B-488D533D74BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="56">
   <si>
     <t>май</t>
   </si>
@@ -180,16 +180,19 @@
     <t>24_06</t>
   </si>
   <si>
-    <t>17_06</t>
-  </si>
-  <si>
     <t>27_05</t>
   </si>
   <si>
     <t>20_05</t>
   </si>
   <si>
-    <t>10_06</t>
+    <t>01_07</t>
+  </si>
+  <si>
+    <t>не хватает дз</t>
+  </si>
+  <si>
+    <t>успешно</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -556,55 +565,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,58 +649,61 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AX13" sqref="AX13"/>
+      <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -1037,164 +1005,165 @@
     <col min="26" max="26" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="42.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="38" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="42" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="23.5546875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="28.44140625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="16.6640625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="3.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="16384" width="5.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:56" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="41"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="33"/>
     </row>
-    <row r="2" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:56" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43" t="s">
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43" t="s">
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43" t="s">
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43" t="s">
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43" t="s">
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43" t="s">
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="44"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="36"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>16</v>
       </c>
@@ -1355,7 +1324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -1386,9 +1355,9 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1418,7 @@
       <c r="AG4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="37"/>
+      <c r="AH4" s="39"/>
       <c r="AI4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1500,7 +1469,7 @@
       </c>
       <c r="BA4" s="18"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1531,9 +1500,9 @@
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1594,7 +1563,7 @@
       <c r="AG5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="37"/>
+      <c r="AH5" s="39"/>
       <c r="AI5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1653,7 +1622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1684,9 +1653,9 @@
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1747,7 +1716,7 @@
       <c r="AG6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="38"/>
+      <c r="AH6" s="40"/>
       <c r="AI6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
@@ -1820,24 +1789,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AG8" s="30" t="s">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="AG8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="30"/>
-      <c r="AS8" s="30" t="s">
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AS8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="34"/>
+      <c r="AT8" s="38"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1848,7 +1817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AU9" s="13" t="s">
         <v>22</v>
       </c>
@@ -1858,11 +1827,11 @@
       <c r="AW9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AF10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1878,11 +1847,11 @@
       <c r="AW10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="30"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AG11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1898,11 +1867,11 @@
       <c r="AW11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="30"/>
-      <c r="BA11" s="30"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AF12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1916,123 +1885,211 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AF13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AS13" s="30" t="s">
+      <c r="AS13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AT13" s="34"/>
+      <c r="AT13" s="38"/>
       <c r="AU13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV13" s="31" t="s">
+      <c r="AV13" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AW13" s="30"/>
+      <c r="AW13" s="37"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AU14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AV14" s="31" t="s">
+      <c r="AV14" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AW14" s="30"/>
+      <c r="AW14" s="37"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="AU15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AV15" s="31" t="s">
+      <c r="AV15" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AW15" s="30"/>
+      <c r="AW15" s="37"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AS16" s="32" t="s">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="AL16" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="28" t="s">
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AV16" s="29" t="s">
+      <c r="AV16" s="28" t="s">
         <v>37</v>
       </c>
       <c r="AW16" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="AY16" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
+      <c r="BD16" s="42"/>
     </row>
-    <row r="17" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="34"/>
-      <c r="AU17" s="28" t="s">
+    <row r="17" spans="38:56" x14ac:dyDescent="0.3">
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="27" t="s">
         <v>29</v>
       </c>
       <c r="AV17" s="29" t="s">
         <v>19</v>
       </c>
+      <c r="AY17" s="42"/>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="42"/>
+      <c r="BD17" s="42"/>
     </row>
-    <row r="18" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV18" s="29" t="s">
+    <row r="18" spans="38:56" x14ac:dyDescent="0.3">
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV18" s="28" t="s">
         <v>31</v>
       </c>
+      <c r="AY18" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ18" s="43"/>
+      <c r="BA18" s="43"/>
+      <c r="BB18" s="43"/>
+      <c r="BC18" s="43"/>
+      <c r="BD18" s="43"/>
     </row>
-    <row r="19" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="28" t="s">
-        <v>52</v>
+    <row r="19" spans="38:56" x14ac:dyDescent="0.3">
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="AV19" s="29" t="s">
         <v>35</v>
       </c>
+      <c r="AY19" s="43"/>
+      <c r="AZ19" s="43"/>
+      <c r="BA19" s="43"/>
+      <c r="BB19" s="43"/>
+      <c r="BC19" s="43"/>
+      <c r="BD19" s="43"/>
     </row>
-    <row r="20" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="34"/>
+    <row r="20" spans="38:56" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="38"/>
       <c r="AU20" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV20" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="44"/>
+      <c r="BA20" s="44"/>
+      <c r="BB20" s="44"/>
+      <c r="BC20" s="44"/>
+      <c r="BD20" s="44"/>
+    </row>
+    <row r="21" spans="38:56" x14ac:dyDescent="0.3">
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV21" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX21" s="30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="45:49" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV21" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW21" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="45:49" x14ac:dyDescent="0.3">
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV22" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW22" s="27" t="s">
-        <v>32</v>
-      </c>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="44"/>
+      <c r="BA21" s="44"/>
+      <c r="BB21" s="44"/>
+      <c r="BC21" s="44"/>
+      <c r="BD21" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="AL16:AT21"/>
+    <mergeCell ref="AY9:BA11"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AY16:BD17"/>
+    <mergeCell ref="AY18:BD19"/>
+    <mergeCell ref="AY20:BD21"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AG8:AQ8"/>
+    <mergeCell ref="AS13:AT13"/>
     <mergeCell ref="A1:BA1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -2047,16 +2104,6 @@
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AG8:AQ8"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AY9:BA11"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AS16:AT22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29798A64-314B-40A0-A30B-488D533D74BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308CB45-79CE-4E58-BEB5-FF1D2DC35B33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,6 +661,30 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,31 +703,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BE21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AO13" sqref="AO13"/>
+      <selection activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -1018,152 +1018,155 @@
     <col min="47" max="47" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="5.109375" style="1"/>
+    <col min="50" max="50" width="13.5546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="5.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:57" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="41"/>
     </row>
-    <row r="2" spans="1:56" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:57" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35" t="s">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35" t="s">
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35" t="s">
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35" t="s">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35" t="s">
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35" t="s">
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="36"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="44"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>16</v>
       </c>
@@ -1311,20 +1314,21 @@
       <c r="AW3" s="21">
         <v>17</v>
       </c>
-      <c r="AX3" s="21">
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21">
         <v>24</v>
       </c>
-      <c r="AY3" s="21">
+      <c r="AZ3" s="21">
         <v>1</v>
       </c>
-      <c r="AZ3" s="21">
+      <c r="BA3" s="21">
         <v>8</v>
       </c>
-      <c r="BA3" s="22">
+      <c r="BB3" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -1355,9 +1359,9 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1418,7 +1422,7 @@
       <c r="AG4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="39"/>
+      <c r="AH4" s="37"/>
       <c r="AI4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1464,12 +1468,13 @@
       <c r="AW4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AX4" s="13">
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="13">
         <v>24</v>
       </c>
-      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1500,9 +1505,9 @@
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1563,7 +1568,7 @@
       <c r="AG5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="39"/>
+      <c r="AH5" s="37"/>
       <c r="AI5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1609,20 +1614,21 @@
       <c r="AW5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AX5" s="13">
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="13">
         <v>26</v>
       </c>
-      <c r="AY5" s="13">
+      <c r="AZ5" s="13">
         <v>3</v>
       </c>
-      <c r="AZ5" s="17">
+      <c r="BA5" s="17">
         <v>10</v>
       </c>
-      <c r="BA5" s="7">
+      <c r="BB5" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:57" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1653,9 +1659,9 @@
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1716,7 +1722,7 @@
       <c r="AG6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="40"/>
+      <c r="AH6" s="38"/>
       <c r="AI6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1762,51 +1768,52 @@
       <c r="AW6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AX6" s="14">
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="14">
         <v>27</v>
       </c>
-      <c r="AY6" s="13">
+      <c r="AZ6" s="13">
         <v>4</v>
       </c>
-      <c r="AZ6" s="12">
+      <c r="BA6" s="12">
         <v>11</v>
       </c>
-      <c r="BA6" s="23">
+      <c r="BB6" s="23">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
-      <c r="AY7" s="12">
+      <c r="AZ7" s="12">
         <v>5</v>
       </c>
-      <c r="AZ7" s="17">
+      <c r="BA7" s="17">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="AG8" s="37" t="s">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AG8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AS8" s="37" t="s">
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AS8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="38"/>
+      <c r="AT8" s="32"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1816,8 +1823,9 @@
       <c r="AW8" s="24" t="s">
         <v>30</v>
       </c>
+      <c r="AX8" s="24"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AU9" s="13" t="s">
         <v>22</v>
       </c>
@@ -1827,11 +1835,12 @@
       <c r="AW9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
+      <c r="AX9" s="24"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AF10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1847,11 +1856,12 @@
       <c r="AW10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AY10" s="37"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="37"/>
+      <c r="AX10" s="24"/>
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="31"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AG11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1867,11 +1877,12 @@
       <c r="AW11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AY11" s="37"/>
-      <c r="AZ11" s="37"/>
-      <c r="BA11" s="37"/>
+      <c r="AX11" s="24"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AF12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1884,178 +1895,178 @@
       <c r="AW12" s="25" t="s">
         <v>38</v>
       </c>
+      <c r="AX12" s="25"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AF13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AS13" s="37" t="s">
+      <c r="AS13" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AT13" s="38"/>
+      <c r="AT13" s="32"/>
       <c r="AU13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV13" s="41" t="s">
+      <c r="AV13" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AW13" s="37"/>
+      <c r="AW13" s="31"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AU14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AV14" s="41" t="s">
+      <c r="AV14" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="AW14" s="37"/>
+      <c r="AW14" s="31"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="AU15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AV15" s="41" t="s">
+      <c r="AV15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AW15" s="37"/>
+      <c r="AW15" s="31"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="AL16" s="45" t="s">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AL16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="38"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="32"/>
       <c r="AU16" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AV16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AW16" s="29" t="s">
+      <c r="AW16" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AY16" s="42" t="s">
+      <c r="AX16" s="45"/>
+      <c r="AZ16" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
+      <c r="BA16" s="34"/>
+      <c r="BB16" s="34"/>
+      <c r="BC16" s="34"/>
+      <c r="BD16" s="34"/>
+      <c r="BE16" s="34"/>
     </row>
-    <row r="17" spans="38:56" x14ac:dyDescent="0.3">
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="38"/>
+    <row r="17" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="32"/>
       <c r="AU17" s="27" t="s">
         <v>29</v>
       </c>
       <c r="AV17" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AY17" s="42"/>
-      <c r="AZ17" s="42"/>
-      <c r="BA17" s="42"/>
-      <c r="BB17" s="42"/>
-      <c r="BC17" s="42"/>
-      <c r="BD17" s="42"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="34"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="34"/>
+      <c r="BD17" s="34"/>
+      <c r="BE17" s="34"/>
     </row>
-    <row r="18" spans="38:56" x14ac:dyDescent="0.3">
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="38"/>
+    <row r="18" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="32"/>
       <c r="AU18" s="27" t="s">
         <v>52</v>
       </c>
       <c r="AV18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AY18" s="43" t="s">
+      <c r="AZ18" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AZ18" s="43"/>
-      <c r="BA18" s="43"/>
-      <c r="BB18" s="43"/>
-      <c r="BC18" s="43"/>
-      <c r="BD18" s="43"/>
+      <c r="BA18" s="35"/>
+      <c r="BB18" s="35"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="35"/>
     </row>
-    <row r="19" spans="38:56" x14ac:dyDescent="0.3">
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="38"/>
+    <row r="19" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="32"/>
       <c r="AU19" s="27" t="s">
         <v>51</v>
       </c>
       <c r="AV19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AY19" s="43"/>
-      <c r="AZ19" s="43"/>
-      <c r="BA19" s="43"/>
-      <c r="BB19" s="43"/>
-      <c r="BC19" s="43"/>
-      <c r="BD19" s="43"/>
+      <c r="AZ19" s="35"/>
+      <c r="BA19" s="35"/>
+      <c r="BB19" s="35"/>
+      <c r="BC19" s="35"/>
+      <c r="BD19" s="35"/>
+      <c r="BE19" s="35"/>
     </row>
-    <row r="20" spans="38:56" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="38"/>
+    <row r="20" spans="38:57" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="32"/>
       <c r="AU20" s="17" t="s">
         <v>50</v>
       </c>
       <c r="AV20" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AW20" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="44"/>
-      <c r="BA20" s="44"/>
-      <c r="BB20" s="44"/>
-      <c r="BC20" s="44"/>
-      <c r="BD20" s="44"/>
+      <c r="AX20" s="45"/>
+      <c r="AZ20" s="36"/>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="36"/>
+      <c r="BC20" s="36"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="36"/>
     </row>
-    <row r="21" spans="38:56" x14ac:dyDescent="0.3">
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="38"/>
+    <row r="21" spans="38:57" x14ac:dyDescent="0.3">
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="32"/>
       <c r="AU21" s="17" t="s">
         <v>53</v>
       </c>
@@ -2066,31 +2077,21 @@
         <v>33</v>
       </c>
       <c r="AX21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY21" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="44"/>
-      <c r="BA21" s="44"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="44"/>
-      <c r="BD21" s="44"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AL16:AT21"/>
-    <mergeCell ref="AY9:BA11"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AY16:BD17"/>
-    <mergeCell ref="AY18:BD19"/>
-    <mergeCell ref="AY20:BD21"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="K4:M6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="AG8:AQ8"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="A1:BA1"/>
+    <mergeCell ref="A1:BB1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
@@ -2099,11 +2100,24 @@
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="K4:M6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="AG8:AQ8"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AL16:AT21"/>
+    <mergeCell ref="AZ9:BB11"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AZ16:BE17"/>
+    <mergeCell ref="AZ18:BE19"/>
+    <mergeCell ref="AZ20:BE21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/План 221-1.xlsx
+++ b/lections/План 221-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-221-1\lections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308CB45-79CE-4E58-BEB5-FF1D2DC35B33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5AD668-C1CC-4364-B586-8586E2895B86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="52">
   <si>
     <t>май</t>
   </si>
@@ -111,12 +111,6 @@
     <t>11_05</t>
   </si>
   <si>
-    <t>18_05</t>
-  </si>
-  <si>
-    <t>19_05</t>
-  </si>
-  <si>
     <t>Николай</t>
   </si>
   <si>
@@ -177,29 +171,23 @@
     <t>Python bot</t>
   </si>
   <si>
-    <t>24_06</t>
-  </si>
-  <si>
-    <t>27_05</t>
-  </si>
-  <si>
-    <t>20_05</t>
-  </si>
-  <si>
-    <t>01_07</t>
-  </si>
-  <si>
     <t>не хватает дз</t>
   </si>
   <si>
     <t>успешно</t>
+  </si>
+  <si>
+    <t>не сдан диплом</t>
+  </si>
+  <si>
+    <t>08_07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +222,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -313,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -565,11 +560,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,36 +767,102 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,7 +887,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE21"/>
+  <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14"/>
+    <sheetView tabSelected="1" topLeftCell="AH13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AW23" sqref="AW23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
@@ -1016,157 +1200,157 @@
     <col min="43" max="43" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="46" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.5546875" style="1" customWidth="1"/>
-    <col min="51" max="51" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="16384" width="5.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:59" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="41"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="63"/>
     </row>
-    <row r="2" spans="1:57" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:59" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43" t="s">
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43" t="s">
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43" t="s">
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43" t="s">
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43" t="s">
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="44"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="66"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>16</v>
       </c>
@@ -1328,7 +1512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -1359,9 +1543,9 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1606,7 @@
       <c r="AG4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH4" s="37"/>
+      <c r="AH4" s="59"/>
       <c r="AI4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1474,7 +1658,7 @@
       </c>
       <c r="BB4" s="18"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1505,9 +1689,9 @@
       <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1568,7 +1752,7 @@
       <c r="AG5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="37"/>
+      <c r="AH5" s="59"/>
       <c r="AI5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1628,7 +1812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1659,9 +1843,9 @@
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
       <c r="N6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1722,7 +1906,7 @@
       <c r="AG6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="38"/>
+      <c r="AH6" s="60"/>
       <c r="AI6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1782,7 +1966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
@@ -1796,24 +1980,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="AG8" s="31" t="s">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AG8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AS8" s="31" t="s">
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AS8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AT8" s="32"/>
+      <c r="AT8" s="58"/>
       <c r="AU8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1821,273 +2005,217 @@
         <v>19</v>
       </c>
       <c r="AW8" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AX8" s="24"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AU9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="AV9" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AW9" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AX9" s="24"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31"/>
+      <c r="AZ9" s="47"/>
+      <c r="BA9" s="47"/>
+      <c r="BB9" s="47"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AF10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AU10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="AV10" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AW10" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AX10" s="24"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="31"/>
+      <c r="AZ10" s="47"/>
+      <c r="BA10" s="47"/>
+      <c r="BB10" s="47"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AG11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AU11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AV11" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AW11" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX11" s="24"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
+      <c r="AZ11" s="47"/>
+      <c r="BA11" s="47"/>
+      <c r="BB11" s="47"/>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AF12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AU12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="AV12" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AW12" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AX12" s="25"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AF13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS13" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AS13" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT13" s="32"/>
+      <c r="AT13" s="58"/>
       <c r="AU13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV13" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AV13" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW13" s="31"/>
+      <c r="AW13" s="47"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="AU14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AV14" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW14" s="31"/>
+      <c r="AV14" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW14" s="47"/>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AU15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AV15" s="33" t="s">
+      <c r="AV15" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW15" s="47"/>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="AL16" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="33"/>
+      <c r="BB16" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC16" s="50"/>
+      <c r="BD16" s="50"/>
+      <c r="BE16" s="50"/>
+      <c r="BF16" s="50"/>
+      <c r="BG16" s="51"/>
+    </row>
+    <row r="17" spans="38:59" x14ac:dyDescent="0.3">
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX17" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ17" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA17" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB17" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="AW15" s="31"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="53"/>
+      <c r="BE17" s="53"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="54"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="AL16" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV16" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX16" s="45"/>
-      <c r="AZ16" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="34"/>
-      <c r="BC16" s="34"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="34"/>
-    </row>
-    <row r="17" spans="38:57" x14ac:dyDescent="0.3">
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="32"/>
-      <c r="AU17" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ17" s="34"/>
-      <c r="BA17" s="34"/>
-      <c r="BB17" s="34"/>
-      <c r="BC17" s="34"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="34"/>
-    </row>
-    <row r="18" spans="38:57" x14ac:dyDescent="0.3">
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ18" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="35"/>
-      <c r="BC18" s="35"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="35"/>
-    </row>
-    <row r="19" spans="38:57" x14ac:dyDescent="0.3">
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="32"/>
-      <c r="AU19" s="27" t="s">
+    <row r="18" spans="38:59" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AV19" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ19" s="35"/>
-      <c r="BA19" s="35"/>
-      <c r="BB19" s="35"/>
-      <c r="BC19" s="35"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="35"/>
-    </row>
-    <row r="20" spans="38:57" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="17" t="s">
+      <c r="AV18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW18" s="30"/>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="30"/>
+      <c r="AZ18" s="30"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AV20" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX20" s="45"/>
-      <c r="AZ20" s="36"/>
-      <c r="BA20" s="36"/>
-      <c r="BB20" s="36"/>
-      <c r="BC20" s="36"/>
-      <c r="BD20" s="36"/>
-      <c r="BE20" s="36"/>
-    </row>
-    <row r="21" spans="38:57" x14ac:dyDescent="0.3">
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW21" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX21" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY21" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="AZ21" s="36"/>
-      <c r="BA21" s="36"/>
-      <c r="BB21" s="36"/>
-      <c r="BC21" s="36"/>
-      <c r="BD21" s="36"/>
-      <c r="BE21" s="36"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="56"/>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2110,14 +2238,14 @@
     <mergeCell ref="AH4:AH6"/>
     <mergeCell ref="AG8:AQ8"/>
     <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AL16:AT21"/>
+    <mergeCell ref="AL16:AT18"/>
     <mergeCell ref="AZ9:BB11"/>
     <mergeCell ref="AV13:AW13"/>
     <mergeCell ref="AV15:AW15"/>
     <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AZ16:BE17"/>
-    <mergeCell ref="AZ18:BE19"/>
-    <mergeCell ref="AZ20:BE21"/>
+    <mergeCell ref="BB16:BG16"/>
+    <mergeCell ref="BB17:BG17"/>
+    <mergeCell ref="BB18:BG18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
